--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0EE478-F7A3-441F-8674-D99736D78ECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2639F4D-950E-4615-9567-BD5B6B75996F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="8" r:id="rId2"/>
+    <sheet name="Czech" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
   <si>
     <t>Wg</t>
   </si>
@@ -97,6 +98,12 @@
   </si>
   <si>
     <t>Belgium Market</t>
+  </si>
+  <si>
+    <t>Czech Market</t>
+  </si>
+  <si>
+    <t>NGC-3477/T1732</t>
   </si>
 </sst>
 </file>
@@ -642,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE99313-E25B-46AF-9427-E0EA81FBAA22}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,4 +765,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F4C605-A051-4E3C-9D39-22121CB08E6A}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2639F4D-950E-4615-9567-BD5B6B75996F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E890F-5B3C-48F3-BF4E-6309F2594462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="8" r:id="rId2"/>
     <sheet name="Czech" sheetId="9" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
   <si>
     <t>Wg</t>
   </si>
@@ -104,6 +105,15 @@
   </si>
   <si>
     <t>NGC-3477/T1732</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2352</t>
   </si>
 </sst>
 </file>
@@ -771,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F4C605-A051-4E3C-9D39-22121CB08E6A}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,4 +897,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD5C7DC-7948-4F34-9F28-136A0D7A2E2F}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E890F-5B3C-48F3-BF4E-6309F2594462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEFE508-4BAF-4810-8EEC-F60552DFB241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="8" r:id="rId2"/>
     <sheet name="Czech" sheetId="9" r:id="rId3"/>
     <sheet name="Swiss" sheetId="10" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="28">
   <si>
     <t>Wg</t>
   </si>
@@ -114,6 +115,12 @@
   </si>
   <si>
     <t>NGC-3476/T2352</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2407</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
   </si>
 </sst>
 </file>
@@ -903,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD5C7DC-7948-4F34-9F28-136A0D7A2E2F}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -1019,4 +1026,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EE6F54-F35D-4C71-A280-4C6101EA728B}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEFE508-4BAF-4810-8EEC-F60552DFB241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872B6343-57B6-4674-A5A2-F7732A98739A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
@@ -117,10 +117,10 @@
     <t>NGC-3476/T2352</t>
   </si>
   <si>
-    <t>NGC-3479/T2407</t>
-  </si>
-  <si>
     <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2407/T2508</t>
   </si>
 </sst>
 </file>
@@ -1033,13 +1033,13 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
@@ -1057,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1079,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872B6343-57B6-4674-A5A2-F7732A98739A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C4357C-0AF2-4636-8C30-C692580B324B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="9" r:id="rId3"/>
     <sheet name="Swiss" sheetId="10" r:id="rId4"/>
     <sheet name="Portugal" sheetId="11" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -121,6 +122,9 @@
   </si>
   <si>
     <t>NGC-3479/T2407/T2508</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3220</t>
   </si>
 </sst>
 </file>
@@ -545,7 +549,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,7 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EE6F54-F35D-4C71-A280-4C6101EA728B}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1148,4 +1152,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC8FE80-8083-4899-ABED-29E96E0A917E}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C4357C-0AF2-4636-8C30-C692580B324B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF8875D-BC33-4059-AC4A-251D1C604B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="10" r:id="rId4"/>
     <sheet name="Portugal" sheetId="11" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
+    <sheet name="Italy" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -125,6 +126,12 @@
   </si>
   <si>
     <t>NGC-2930/T3220</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2154</t>
   </si>
 </sst>
 </file>
@@ -1158,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC8FE80-8083-4899-ABED-29E96E0A917E}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1274,4 +1281,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5BFE29-6D72-457B-A579-28CAC29AA259}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF8875D-BC33-4059-AC4A-251D1C604B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C649D8-0949-4F63-8C4A-BB3E9F892F27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="11" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
     <sheet name="Italy" sheetId="13" r:id="rId7"/>
+    <sheet name="Spain" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="36">
   <si>
     <t>Wg</t>
   </si>
@@ -132,6 +133,21 @@
   </si>
   <si>
     <t>NGC-3145/T2154</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>PZ4DS(Dect/Fault)</t>
+  </si>
+  <si>
+    <t>Three PZ4DS(Dect/Fault)</t>
+  </si>
+  <si>
+    <t>Two PZ4DS(Dect/Fault)</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2044</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5BFE29-6D72-457B-A579-28CAC29AA259}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1403,4 +1419,141 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4808F-9821-413D-AF74-DD4FD73E3B18}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C649D8-0949-4F63-8C4A-BB3E9F892F27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6645CFC-A78E-461A-97E4-A66842D5A918}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
     <sheet name="Italy" sheetId="13" r:id="rId7"/>
     <sheet name="Spain" sheetId="14" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="38">
   <si>
     <t>Wg</t>
   </si>
@@ -148,6 +149,12 @@
   </si>
   <si>
     <t>NGC-3103/T2044</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3298</t>
   </si>
 </sst>
 </file>
@@ -1425,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4808F-9821-413D-AF74-DD4FD73E3B18}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1556,4 +1563,140 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3699B13-0D9E-4BA5-BD95-2FCFC3D81CC4}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6645CFC-A78E-461A-97E4-A66842D5A918}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B94EBE-699E-435A-9EB2-0D16BB8344BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="13" r:id="rId7"/>
     <sheet name="Spain" sheetId="14" r:id="rId8"/>
     <sheet name="Turkey" sheetId="15" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="40">
   <si>
     <t>Wg</t>
   </si>
@@ -155,6 +156,12 @@
   </si>
   <si>
     <t>NGC-3191/T3298</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T2423</t>
   </si>
 </sst>
 </file>
@@ -696,6 +703,142 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959DEA85-C1AB-4FAE-9935-A2BD127A4267}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE99313-E25B-46AF-9427-E0EA81FBAA22}">
   <dimension ref="A1:D15"/>
@@ -1569,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3699B13-0D9E-4BA5-BD95-2FCFC3D81CC4}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B94EBE-699E-435A-9EB2-0D16BB8344BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC45C44-CF59-43F5-90AF-570D0D8EC577}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="14" r:id="rId8"/>
     <sheet name="Turkey" sheetId="15" r:id="rId9"/>
     <sheet name="Croatia" sheetId="16" r:id="rId10"/>
+    <sheet name="Greece" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="42">
   <si>
     <t>Wg</t>
   </si>
@@ -162,6 +163,12 @@
   </si>
   <si>
     <t>NGC-3191/T2423</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3165</t>
   </si>
 </sst>
 </file>
@@ -707,6 +714,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959DEA85-C1AB-4FAE-9935-A2BD127A4267}">
   <dimension ref="A1:D18"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26D4D1B-B564-4675-BD94-2E9B9DB83792}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -731,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -753,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC45C44-CF59-43F5-90AF-570D0D8EC577}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD22ECF-BA62-4129-9EB3-0137F4CF54A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="15" r:id="rId9"/>
     <sheet name="Croatia" sheetId="16" r:id="rId10"/>
     <sheet name="Greece" sheetId="17" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="22" r:id="rId12"/>
+    <sheet name="Austria" sheetId="23" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="24" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="48">
   <si>
     <t>Wg</t>
   </si>
@@ -169,6 +172,24 @@
   </si>
   <si>
     <t>NGC-4119/T3165</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2185</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2281</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2755</t>
   </si>
 </sst>
 </file>
@@ -850,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26D4D1B-B564-4675-BD94-2E9B9DB83792}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,6 +981,417 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7F87AE-5700-4F68-A42B-299AC2BBB917}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C6E5F3-91FA-4A04-9A4A-21945D1CBAF6}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2B2D2F-401C-40A0-BAB9-72525A56B41E}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">

--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD22ECF-BA62-4129-9EB3-0137F4CF54A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE6D3FF-03D4-4838-BDD0-0B22EBDDBEEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="22" r:id="rId12"/>
     <sheet name="Austria" sheetId="23" r:id="rId13"/>
     <sheet name="Denmark" sheetId="24" r:id="rId14"/>
+    <sheet name="Russia" sheetId="26" r:id="rId15"/>
+    <sheet name="Finland" sheetId="27" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="28" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -190,6 +193,24 @@
   </si>
   <si>
     <t>NGC-2913/T2755</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2898</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2941</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2990</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2B2D2F-401C-40A0-BAB9-72525A56B41E}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1392,6 +1413,414 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2BDA3-5B5F-427B-BCB7-414CC7D87884}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B516E4A8-6381-4339-853D-8CACFF0244F8}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053D79A1-801E-407E-820D-530D5EB29006}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">

--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE6D3FF-03D4-4838-BDD0-0B22EBDDBEEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717D82B2-247B-4F37-B27C-579A2E343A55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="26" r:id="rId15"/>
     <sheet name="Finland" sheetId="27" r:id="rId16"/>
     <sheet name="Hungary" sheetId="28" r:id="rId17"/>
+    <sheet name="Norway" sheetId="29" r:id="rId18"/>
+    <sheet name="Poland" sheetId="30" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="58">
   <si>
     <t>Wg</t>
   </si>
@@ -211,6 +213,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3059</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/3102</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053D79A1-801E-407E-820D-530D5EB29006}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
@@ -1765,6 +1779,278 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF41ED9B-D2D6-4CBD-BBA7-878A37980FFF}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F8ED1C-277E-48A9-9A2A-7D3E4E65AECA}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717D82B2-247B-4F37-B27C-579A2E343A55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9381814-731F-421D-A206-30EB6FB6D833}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="28" r:id="rId17"/>
     <sheet name="Norway" sheetId="29" r:id="rId18"/>
     <sheet name="Poland" sheetId="30" r:id="rId19"/>
+    <sheet name="UK" sheetId="31" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="60">
   <si>
     <t>Wg</t>
   </si>
@@ -225,6 +226,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3334</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1861,7 +1868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF41ED9B-D2D6-4CBD-BBA7-878A37980FFF}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2251,6 +2258,142 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C07D2B-0F24-4F8F-95E0-EA0D91E290D1}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F4C605-A051-4E3C-9D39-22121CB08E6A}">
   <dimension ref="A1:D15"/>

--- a/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_AttachedFunctionality_ProPanels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9381814-731F-421D-A206-30EB6FB6D833}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2E833D-C663-4707-AE14-43389DB78163}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
@@ -228,10 +228,10 @@
     <t>Poland Market</t>
   </si>
   <si>
-    <t>NGC-2741/T3334</t>
-  </si>
-  <si>
     <t>UK Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3341</t>
   </si>
 </sst>
 </file>
@@ -2286,7 +2286,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -2308,7 +2308,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
